--- a/challenge_4/Problem/Persona_Alex.xlsx
+++ b/challenge_4/Problem/Persona_Alex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://transwaggon-my.sharepoint.com/personal/arvid_freese_transwaggon_de/Documents/Desktop/Berufsschule/GITREPS/SmartSystemsBS14/challenge_4/Problem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\Design-Thinking-Workshop\SmartSystemsBS14\challenge_4\Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{288A6AB2-B342-4DFC-9BE1-605378DE017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA4F9F9-221F-4CCD-9CAC-A48F9FF55C25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09050AD-3990-481B-B4C5-B23882C0C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5E46768-A93C-4607-A35E-44C1E7A719DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A5E46768-A93C-4607-A35E-44C1E7A719DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,26 +214,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,14 +308,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>131280</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12221</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,8 +345,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="493230"/>
-          <a:ext cx="2383946" cy="1573696"/>
+          <a:off x="0" y="336433"/>
+          <a:ext cx="2386144" cy="1580291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,219 +667,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12C7367-46CD-4B4A-A8C9-530589A84DDD}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -839,11 +889,11 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D13:I18"/>
-    <mergeCell ref="A13:C17"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="D3:I7"/>
     <mergeCell ref="D8:I12"/>
     <mergeCell ref="A3:C12"/>
+    <mergeCell ref="A13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
